--- a/experiment_results/best_case/ExamDB/3wise/1_best_case.xlsx
+++ b/experiment_results/best_case/ExamDB/3wise/1_best_case.xlsx
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>251</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>251</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>251</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>251</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>251</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <v>251</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>251</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>251</v>
@@ -5749,7 +5749,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>251</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>251</v>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>251</v>
@@ -6741,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>251</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>251</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>251</v>
